--- a/data/income_statement/2digits/total/52_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/52_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>52-Warehousing and support activities for transportation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>52-Warehousing and support activities for transportation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>14370880.46299</v>
+        <v>14372407.78471</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>17853882.8171</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>23037803.1059</v>
+        <v>23037953.45804</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>25634776.10497</v>
+        <v>25645933.02672</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>31164505.30363</v>
+        <v>31231150.10729</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>35801620.40232</v>
+        <v>36457998.11476</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>38739076.51038</v>
+        <v>43320929.26100999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>46285864.86409</v>
+        <v>46743928.03429</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>64459617.1486</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>85269656.07055001</v>
+        <v>85463564.11175999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>109527503.58086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>110318584.33729</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>127556246.289</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>9827528.211750001</v>
+        <v>9828990.853470001</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>12443718.254</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>15737392.32251</v>
+        <v>15737541.47465</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>18266510.35714</v>
+        <v>18277492.95016</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>22062759.72015</v>
+        <v>22092739.86471</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>25522178.99736</v>
+        <v>26171916.41539</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>27612478.93517</v>
+        <v>31062756.11548</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>34111766.27578</v>
+        <v>34404261.13171999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>47442897.5308</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>61130883.23860001</v>
+        <v>61296614.4652</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>78982474.11554001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>79515848.46251999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>88878235.552</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4288143.10186</v>
@@ -1034,76 +950,86 @@
         <v>5124888.75655</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6957739.391580001</v>
+        <v>6957739.391579999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6957062.734940001</v>
+        <v>6957107.25283</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8675750.499440001</v>
+        <v>8710203.956220001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9755662.560300002</v>
+        <v>9757309.866210001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10532745.93674</v>
+        <v>11650059.15825</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>11350348.75451</v>
+        <v>11510133.08439</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>15972992.48397</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>22749292.68082</v>
+        <v>22774414.8515</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>28682151.0649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28931560.68439</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>36608749.04</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>255209.14938</v>
+        <v>255273.82938</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>285275.80655</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>342671.39181</v>
+        <v>342672.59181</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>411203.01289</v>
+        <v>411332.82373</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>425995.08404</v>
+        <v>428206.28636</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>523778.8446599999</v>
+        <v>528771.8331599999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>593851.63847</v>
+        <v>608113.9872800001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>823749.8337999999</v>
+        <v>829533.8181800001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1043727.13383</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1389480.15113</v>
+        <v>1392534.79506</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1862878.40042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1871175.19038</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2069261.697</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>229954.88363</v>
@@ -1115,34 +1041,39 @@
         <v>353020.10438</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>356510.74716</v>
+        <v>356514.3187</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>564211.59931</v>
+        <v>564237.19848</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>579313.1262899999</v>
+        <v>596569.50293</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1492988.08418</v>
+        <v>1835004.39586</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>918379.03796</v>
+        <v>921771.7723099999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1252698.83664</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1814278.2468</v>
+        <v>1814376.1453</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2748051.44165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2749789.29744</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2861626.893</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>44249.02423</v>
@@ -1154,34 +1085,39 @@
         <v>70939.30223999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>72156.10569999999</v>
+        <v>72157.68166999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>237187.95633</v>
+        <v>237199.90322</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>167796.02804</v>
+        <v>185050.86798</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1318161.39904</v>
+        <v>1326868.53767</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>331598.19027</v>
+        <v>334770.90512</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>438669.86497</v>
+        <v>438669.8649700001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>600949.6873199999</v>
+        <v>601024.32644</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1211547.21415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1212573.74565</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1481793.378</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>13160.91046</v>
@@ -1193,34 +1129,39 @@
         <v>32193.65853</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>22037.77727</v>
+        <v>22039.77284</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>27435.09459</v>
+        <v>27448.74687</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>41419.89458</v>
+        <v>41421.43128</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>60058.98026</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>86027.05213</v>
+        <v>86247.07163000002</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>183876.13936</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>296502.46836</v>
+        <v>296516.48343</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>355230.97119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>355762.27571</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>473692.354</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>172544.94894</v>
@@ -1238,106 +1179,121 @@
         <v>299588.54839</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>370097.20367</v>
+        <v>370097.2036700001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>114767.70488</v>
+        <v>448076.87793</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>500753.79556</v>
+        <v>500753.7955599999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>630152.8323100001</v>
+        <v>630152.83231</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>916826.09112</v>
+        <v>916835.33543</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1181273.25631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1181453.27608</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>906141.161</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>14140925.57936</v>
+        <v>14142452.90108</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>17583042.1086</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>22684783.00152</v>
+        <v>22684933.35366</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>25278265.35781</v>
+        <v>25289418.70802</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>30600293.70432</v>
+        <v>30666912.90881</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>35222307.27603</v>
+        <v>35861428.61183</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>37246088.42619999</v>
+        <v>41485924.86515</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>45367485.82613</v>
+        <v>45822156.26198</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>63206918.31196</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>83455377.82375</v>
+        <v>83649187.96646</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>106779452.13921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>107568795.03985</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>124694619.396</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>10280943.91167</v>
+        <v>10281441.18714</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>13091531.87358</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>16632778.73015</v>
+        <v>16632947.21819</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>18810796.44258999</v>
+        <v>18819476.8968</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>22633990.98056</v>
+        <v>22682521.73435</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>25738628.74962</v>
+        <v>26113183.08593</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>27384859.26072</v>
+        <v>29658048.94897</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>33698865.44852</v>
+        <v>34110246.90968</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>47603689.11946</v>
+        <v>47603689.11946001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>61167120.82723</v>
+        <v>61345157.23565999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>78847590.22750001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>79526926.03627001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>100952496.923</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>223547.84652</v>
@@ -1355,10 +1311,10 @@
         <v>120457.75059</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>620372.7229100001</v>
+        <v>621004.50885</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>193955.24532</v>
+        <v>194340.8514</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>431257.53014</v>
@@ -1367,55 +1323,65 @@
         <v>319023.26444</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>238220.05821</v>
+        <v>238224.19161</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>442046.62415</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>448016.9646</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>617679.014</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1139024.61452</v>
+        <v>1139521.88999</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1314019.7207</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2192578.78924</v>
+        <v>2192603.75112</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1965112.92304</v>
+        <v>1967418.31969</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2738099.88009</v>
+        <v>2745064.37284</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2342726.8461</v>
+        <v>2350748.91943</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2858628.69936</v>
+        <v>2882939.50342</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2959014.24344</v>
+        <v>2963867.07342</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>4383913.24827</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4383822.93602</v>
+        <v>4406274.20866</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5459794.509889999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5742198.386049999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>9638843.113</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>8850295.37225</v>
@@ -1424,154 +1390,174 @@
         <v>11476604.72323</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>14163237.96155</v>
+        <v>14163381.48771</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>16659669.20265</v>
+        <v>16666010.84491</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>19740783.42055</v>
+        <v>19782254.83537</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>22724849.28727</v>
+        <v>23090628.41179</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>24249296.03072</v>
+        <v>26497716.53362</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>30218116.79666</v>
+        <v>30624287.73872</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>42785776.52805001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>56392530.45533</v>
+        <v>56548101.45079</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>72462274.19738001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>72904153.15202001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>90009703.92900001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>68076.07838000001</v>
+        <v>68076.07837999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>89567.49566999999</v>
+        <v>89567.49567</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>30279.71631</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>48957.59347</v>
+        <v>48991.00876999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>34649.92933</v>
+        <v>34744.77555</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>50679.89334</v>
+        <v>50801.24586000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>82979.28532</v>
+        <v>83052.06053</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>90476.87828</v>
+        <v>90834.56739999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>114976.0787</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>152547.37767</v>
+        <v>152557.3846</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>483474.89608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>432557.5336</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>686270.867</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3859981.66769</v>
+        <v>3861011.71394</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>4491510.23502</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6052004.27137</v>
+        <v>6051986.135469999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6467468.91522</v>
+        <v>6469941.81122</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7966302.72376</v>
+        <v>7984391.174460001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>9483678.526409999</v>
+        <v>9748245.525899999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9861229.165479999</v>
+        <v>11827875.91618</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>11668620.37761</v>
+        <v>11711909.3523</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>15603229.1925</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22288256.99652</v>
+        <v>22304030.7308</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>27931861.91170999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>28041869.00358</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>23742122.473</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2208827.73695</v>
+        <v>2209866.11769</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>2521705.95314</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3072345.28447</v>
+        <v>3072377.33487</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3515673.83714</v>
+        <v>3518318.33061</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4042536.54078</v>
+        <v>4062002.50045</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4694865.88961</v>
+        <v>4755352.99663</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5224660.110629999</v>
+        <v>5513479.35955</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6071663.3465</v>
+        <v>6113643.49993</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>7835383.72756</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8992515.714029999</v>
+        <v>9005258.827020001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10887835.69227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10938737.66608</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>11875900.494</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2523.34512</v>
@@ -1583,34 +1569,39 @@
         <v>4502.348889999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4450.02473</v>
+        <v>4640.167770000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5502.625569999999</v>
+        <v>5502.62557</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>8240.90279</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>53221.82687</v>
+        <v>57560.0786</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>68551.10331999999</v>
+        <v>68457.67382</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>84073.08273000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>9684.20009</v>
+        <v>9690.77563</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>15104.3213</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>25744.6</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>178340.78361</v>
@@ -1622,112 +1613,127 @@
         <v>262001.03035</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>328297.44167</v>
+        <v>329958.03753</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>374875.02484</v>
+        <v>384856.63138</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>392413.40296</v>
+        <v>398357.58676</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>407054.74646</v>
+        <v>419943.77456</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>491793.62813</v>
+        <v>492621.7627</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>611732.5936499999</v>
+        <v>611732.5936500001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>737532.55557</v>
+        <v>739511.37774</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>884852.46257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>891210.5509499999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1276530.867</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2027963.60822</v>
+        <v>2029001.98896</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>2331552.82598</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2805841.90523</v>
+        <v>2805873.95563</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3182926.37074</v>
+        <v>3183720.12531</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3662158.89037</v>
+        <v>3671643.2435</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4294211.58386</v>
+        <v>4348754.50708</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4764383.537299999</v>
+        <v>5035975.506390001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5511318.615049999</v>
+        <v>5552564.06341</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>7139578.05118</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>8245298.95837</v>
+        <v>8256056.673649999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>9987878.908399999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10032422.79383</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>10573625.027</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1651153.93074</v>
+        <v>1651145.59625</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>1969804.28188</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2979658.9869</v>
+        <v>2979608.800599999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2951795.07808</v>
+        <v>2951623.48061</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3923766.18298</v>
+        <v>3922388.67401</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4788812.636800001</v>
+        <v>4992892.529270001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4636569.05485</v>
+        <v>6314396.55663</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5596957.031110001</v>
+        <v>5598265.85237</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7767845.464939999</v>
+        <v>7767845.46494</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>13295741.28249</v>
+        <v>13298771.90378</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17044026.21944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17103131.3375</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>11866221.979</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1731640.91212</v>
@@ -1739,58 +1745,63 @@
         <v>2472952.6781</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2093971.30415</v>
+        <v>2094146.10195</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3441135.37678</v>
+        <v>3444922.68334</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4327241.06691</v>
+        <v>4539523.85847</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7160319.64164</v>
+        <v>10592598.9491</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>9297700.302850001</v>
+        <v>9323339.896270001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>12485698.84091</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>33160306.61823</v>
+        <v>33171734.19718</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>24878283.78246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>24888850.99846</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>40718097.108</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>31829.13316</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>96444.06668999999</v>
+        <v>96444.06669000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>73099.35826000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>91692.33786</v>
+        <v>91692.33786000001</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>282818.62297</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>286894.0852</v>
+        <v>305138.02762</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>475963.5319</v>
+        <v>478378.8765900001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>269470.47055</v>
+        <v>271177.00161</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>231836.73617</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>532801.20411</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1618875.296</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>58039.33231000001</v>
@@ -1814,7 +1830,7 @@
         <v>70612.11897</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>90264.49722000002</v>
+        <v>90264.49722</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>118871.10914</v>
@@ -1823,10 +1839,10 @@
         <v>144584.55537</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>180297.52655</v>
+        <v>181137.72216</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>327517.76948</v>
+        <v>327949.86945</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>380028.48746</v>
@@ -1835,16 +1851,21 @@
         <v>836118.47945</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>674307.2770300001</v>
+        <v>674307.27703</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>540460.64752</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>149200.216</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>196032.37526</v>
@@ -1856,34 +1877,39 @@
         <v>219115.75563</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>247792.45478</v>
+        <v>247816.55527</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>281932.9741000001</v>
+        <v>282067.15204</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>371183.37299</v>
+        <v>377072.03086</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>413365.5929499999</v>
+        <v>475802.69718</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>496510.6863300001</v>
+        <v>497058.2424399999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>693892.5219500001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1255203.18651</v>
+        <v>1255345.90458</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1471802.07126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1472860.41146</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1392572.859</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>14674.19699</v>
@@ -1895,10 +1921,10 @@
         <v>19480.56909</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>21977.93108</v>
+        <v>22039.26565</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>25480.17272</v>
+        <v>25485.36272</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>34287.27453</v>
@@ -1907,7 +1933,7 @@
         <v>71793.90862999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>33074.85838000001</v>
+        <v>33131.47216</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>47161.03294</v>
@@ -1916,13 +1942,18 @@
         <v>67956.08916</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>59987.95787999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>60438.93962</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>40931.556</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>7790.68878</v>
@@ -1937,70 +1968,80 @@
         <v>16252.94229</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>31446.82883999999</v>
+        <v>31446.82884</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>14617.69259</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>24500.44526</v>
+        <v>24992.44988</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>19829.00321</v>
+        <v>19978.59887</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>42997.66833000001</v>
+        <v>42997.66833</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>70614.48941000001</v>
+        <v>70614.48940999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>238298.96534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>238324.76552</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>185325.042</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>83033.42223</v>
+        <v>83033.42223000001</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>52717.19688</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>65442.41894999999</v>
+        <v>65442.41895000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>43672.09793</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>16334.29157</v>
+        <v>16334.37876</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>14382.69415</v>
+        <v>14385.62052</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6023.79121</v>
+        <v>10411.35811</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>73597.15664</v>
+        <v>73735.93559000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>99487.57174</v>
+        <v>99487.57174000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>28166.80613</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>60390.452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>60388.26534000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>65070.392</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1127702.15991</v>
@@ -2012,34 +2053,39 @@
         <v>1824988.87814</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1363047.63336</v>
+        <v>1363050.09678</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2459570.06345</v>
+        <v>2463076.38211</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3084148.85938</v>
+        <v>3271289.63819</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5546973.85734</v>
+        <v>8871089.134950001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7647400.52604</v>
+        <v>7670431.59924</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>9686610.66959</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>29875349.87874</v>
+        <v>29886606.70536</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>18024846.06264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>18031835.01237</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>35489495.758</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2658.48371</v>
@@ -2057,10 +2103,10 @@
         <v>1058.35337</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>933.48487</v>
+        <v>933.4848700000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>941.8259400000001</v>
+        <v>1069.5799</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2352.34773</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>15474.68861</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1117.383</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>246.89982</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>952.08996</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>919.933</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>209634.21995</v>
@@ -2129,34 +2185,39 @@
         <v>165802.01144</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>189619.76996</v>
+        <v>189706.66928</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>197700.92417</v>
+        <v>197842.45694</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>340287.12352</v>
+        <v>340453.414</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>292121.94562</v>
+        <v>329994.1011</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>374964.8216</v>
+        <v>374974.26626</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>841253.8753000001</v>
+        <v>841253.8753</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>806206.5276799999</v>
+        <v>806234.56194</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3933269.64314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3935314.97395</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1774588.673</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1154654.0059</v>
@@ -2168,40 +2229,45 @@
         <v>1835039.96714</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1153996.0407</v>
+        <v>1154002.36199</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2521537.30672</v>
+        <v>2531187.35675</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3064773.65012</v>
+        <v>3325935.9314</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5446704.785730001</v>
+        <v>8893891.311369998</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7668000.95602</v>
+        <v>7692199.42592</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>10331553.44438</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>32439753.95565001</v>
+        <v>32453060.96903</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>20807309.04138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>20815263.06741</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>38906855.51</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>12888.93362</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>61960.49615</v>
+        <v>61960.49615000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>14094.55231</v>
@@ -2210,16 +2276,16 @@
         <v>18999.71299</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>20947.48976</v>
+        <v>20947.59954</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>33688.01007</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>195894.09905</v>
+        <v>196099.43295</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>31468.83982</v>
+        <v>31475.84408</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>111752.87213</v>
@@ -2228,16 +2294,21 @@
         <v>84742.02795999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>77723.3318</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>66480.3066</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>80614.848</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>39350.12494</v>
+        <v>39350.12493999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>49573.66893</v>
@@ -2249,16 +2320,16 @@
         <v>64271.93437</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>50522.30066</v>
+        <v>50642.51724</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>71840.04835000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>77436.73414999999</v>
+        <v>82650.68209</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>81497.43067999999</v>
+        <v>84457.92815000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>218200.97287</v>
@@ -2267,16 +2338,21 @@
         <v>253081.61187</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>360359.06879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>360397.04668</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>472810.27</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>44104.78749</v>
+        <v>44104.78748999999</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>3920.83448</v>
@@ -2294,10 +2370,10 @@
         <v>2544.39512</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>50692.7542</v>
+        <v>53345.39514</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1116.40004</v>
+        <v>1155.92504</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>20319.3283</v>
@@ -2306,16 +2382,21 @@
         <v>29494.76283</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>58849.09798</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>58849.09798000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>28868.047</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>983407.95799</v>
+        <v>983407.9579900001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>1022246.88858</v>
@@ -2324,34 +2405,39 @@
         <v>1686252.49536</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>975748.10088</v>
+        <v>975749.7608500001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2374988.93271</v>
+        <v>2384283.57818</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2777451.72393</v>
+        <v>3038520.49474</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4968285.286259999</v>
+        <v>8405757.97594</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>7368012.97081</v>
+        <v>7389139.816589999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>9729937.48109</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>31622583.26357</v>
+        <v>31635881.23218</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>19485341.90942</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>19504152.28039</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>37435382.537</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>850.7808100000001</v>
@@ -2369,13 +2455,13 @@
         <v>385.2778299999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>723.09749</v>
+        <v>731.2057</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1154.26676</v>
+        <v>1225.59132</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>753.82069</v>
+        <v>753.8206899999999</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1828.11866</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1740.20751</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>342.47</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>148.28336</v>
@@ -2405,7 +2496,7 @@
         <v>121.40055</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>40.73502000000001</v>
+        <v>40.73502</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>87.23988</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>385.78449</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1161.322</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>73903.13769</v>
@@ -2441,73 +2537,83 @@
         <v>99750.53908</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>79711.10259000001</v>
+        <v>79715.76390999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>70064.25136999998</v>
+        <v>70299.32957</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>178439.13528</v>
+        <v>178524.53754</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>151275.32241</v>
+        <v>152845.91103</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>183375.34465</v>
+        <v>183439.94204</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>246389.63437</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>449243.59237</v>
+        <v>449252.63714</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>822909.64139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>823258.34376</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>887676.0159999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>597724.28551</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>615163.77408</v>
+        <v>615163.7740799999</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>1389968.27053</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>734147.68729</v>
+        <v>734233.7831799999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1753905.86031</v>
+        <v>1755448.05179</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1056069.53973</v>
+        <v>1123656.65874</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1934197.03842</v>
+        <v>1940626.72915</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2435305.16534</v>
+        <v>2440524.79052</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>5269104.562750001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12056427.70155</v>
+        <v>12057476.27753</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13283199.77437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>13285925.27011</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>29904522.746</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>210630.98037</v>
@@ -2519,37 +2625,42 @@
         <v>320605.22211</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>306914.50252</v>
+        <v>306966.22148</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>430570.6336400001</v>
+        <v>430846.47632</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>560425.0718100001</v>
+        <v>560557.81036</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>784235.85875</v>
+        <v>790656.15428</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1063702.93119</v>
+        <v>1068860.40776</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>3601575.3124</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9167474.862680001</v>
+        <v>9168523.43866</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11219932.96156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11222455.88162</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>24872437.514</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>387093.3051400001</v>
+        <v>387093.30514</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>439980.20775</v>
@@ -2558,19 +2669,19 @@
         <v>1069363.04842</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>427233.18477</v>
+        <v>427267.5617</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1323335.22667</v>
+        <v>1324601.57547</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>495644.46792</v>
+        <v>563098.84838</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1149961.17967</v>
+        <v>1149970.57487</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1371602.23415</v>
+        <v>1371664.38276</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1667529.25035</v>
@@ -2579,52 +2690,62 @@
         <v>2888952.838870001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2063266.81281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2063469.38849</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>5032085.232</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1630416.55145</v>
+        <v>1630408.21696</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2243649.37707</v>
+        <v>2243649.377069999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2227603.42733</v>
+        <v>2227553.24103</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3157622.65424</v>
+        <v>3157533.43739</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3089458.39273</v>
+        <v>3080675.94881</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4995210.51386</v>
+        <v>5082823.7976</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4415986.87234</v>
+        <v>6072477.46521</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4791351.2126</v>
+        <v>4788881.5322</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>4652886.298719999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1959866.24352</v>
+        <v>1959968.8544</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>7831801.186149999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>7890793.998439999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-16227059.169</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>185906.25981</v>
@@ -2636,34 +2757,39 @@
         <v>239373.39881</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>334144.0407</v>
+        <v>334179.26844</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>419265.02623</v>
+        <v>419434.91386</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>377159.09483</v>
+        <v>378611.7259199999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>376529.4973699999</v>
+        <v>407914.6137</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>746430.71496</v>
+        <v>747825.38614</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2765662.143880001</v>
+        <v>2765662.143879999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2670159.34802</v>
+        <v>2670451.07418</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3661520.425629999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3671093.68969</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5096578.469</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>37777.03544000001</v>
@@ -2672,7 +2798,7 @@
         <v>13683.17426</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>37590.67463</v>
+        <v>37590.67462999999</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>11913.47513</v>
@@ -2681,16 +2807,16 @@
         <v>20088.28435</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>25781.10448000001</v>
+        <v>25798.90682</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>27808.10913</v>
+        <v>28702.84612000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>27311.09301</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>40512.22221</v>
+        <v>40512.22220999999</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>67895.92344</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>98386.11233</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>197554.494</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>148129.22437</v>
@@ -2714,34 +2845,39 @@
         <v>201782.72418</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>322230.56557</v>
+        <v>322265.79331</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>399176.74188</v>
+        <v>399346.62951</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>351377.99035</v>
+        <v>352812.8191</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>348721.3882400001</v>
+        <v>379211.76758</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>719119.6219500001</v>
+        <v>720514.2931299999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2725149.92167</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2602263.42458</v>
+        <v>2602555.15074</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3563134.3133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3572707.57736</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4899023.975</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>155080.78087</v>
@@ -2750,37 +2886,42 @@
         <v>183661.7492</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>793811.5083000001</v>
+        <v>793811.54698</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>332721.92177</v>
+        <v>332764.58047</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>393276.3799899999</v>
+        <v>393367.5591599999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1052995.87186</v>
+        <v>1059502.5876</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>419963.1033</v>
+        <v>471217.38086</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>938550.83496</v>
+        <v>940947.19737</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1305567.21151</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2419196.61256</v>
+        <v>2419545.55888</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2518625.73949</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2521062.56201</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4748352.705</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>13332.51842</v>
@@ -2804,7 +2945,7 @@
         <v>6122.43646</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>19949.67857</v>
+        <v>20433.12256</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>15360.7952</v>
@@ -2813,52 +2954,62 @@
         <v>6073.97209</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5199.344990000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5199.34899</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>11421.13</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>39655.09976999999</v>
+        <v>39655.09977</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>28345.43637</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>70271.97024000001</v>
+        <v>70271.97024</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>28245.26758</v>
+        <v>28263.80669</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>47916.92636</v>
+        <v>47946.61771</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>561149.1742399998</v>
+        <v>561227.8297</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>93267.76964000001</v>
+        <v>97302.23323</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>97171.46080000002</v>
+        <v>97660.47046</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>377974.76954</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>116346.4538</v>
+        <v>116363.91615</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>166170.12191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>166316.44688</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>199278.659</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>102093.16268</v>
@@ -2867,76 +3018,86 @@
         <v>140323.39393</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>709933.1811700001</v>
+        <v>709933.2198499999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>292986.22776</v>
+        <v>293010.34735</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>335375.80291</v>
+        <v>335437.29073</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>473062.23549</v>
+        <v>479490.29577</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>320572.8972000001</v>
+        <v>367792.71117</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>821429.6955899999</v>
+        <v>822853.60435</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>912231.64677</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2296776.186670001</v>
+        <v>2297107.67064</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2347256.27259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2349546.76614</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4537652.916</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1661242.03039</v>
+        <v>1661233.6959</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>2253836.64881</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1673165.31784</v>
+        <v>1673115.09286</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3159044.77317</v>
+        <v>3158948.12536</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3115447.03897</v>
+        <v>3106743.30351</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4319373.73683</v>
+        <v>4401932.93592</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4372553.26641</v>
+        <v>6009174.69805</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4599231.092599999</v>
+        <v>4595759.72097</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>6112981.23109</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2210828.97898</v>
+        <v>2210874.3697</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>8974695.872289998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9040825.126120001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-15878833.405</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>340603.89347</v>
@@ -2945,73 +3106,81 @@
         <v>395409.24243</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>412270.8039499999</v>
+        <v>412270.80395</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>672010.1136899999</v>
+        <v>672076.21526</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>760322.96017</v>
+        <v>760388.8931999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>807684.5297399999</v>
+        <v>808345.7521599999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>976792.9641100001</v>
+        <v>992261.4780799999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>878196.34751</v>
+        <v>878250.54083</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1333596.12395</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1944403.00945</v>
+        <v>1945982.30237</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2592434.24466</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2598567.28953</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2185169.884</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1320638.13692</v>
+        <v>1320629.80243</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>1858427.40638</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1260894.51389</v>
+        <v>1260844.28891</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2487034.65948</v>
+        <v>2486871.9101</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2355124.0788</v>
+        <v>2346354.41031</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3511689.20709</v>
+        <v>3593587.18376</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3395760.3023</v>
+        <v>5016913.21997</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3721034.74509</v>
+        <v>3717509.18014</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>4779385.107139999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>266425.96953</v>
+        <v>264892.06733</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6382261.62763</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6442257.836589999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-18064003.289</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>8257</v>
+        <v>8258</v>
       </c>
       <c r="D59" s="35" t="n">
         <v>8546</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>9466</v>
+        <v>9471</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10726</v>
+        <v>10748</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>12392</v>
+        <v>12436</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>12782</v>
+        <v>12860</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>12724</v>
+        <v>12893</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>12986</v>
+        <v>13086</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>13324</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>13309</v>
+        <v>13597</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>13523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>14109</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>14717</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>